--- a/pred_ohlcv/54_21/2019-10-19 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ENJ ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-5012546.239801029</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5025157.04784378</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5032699.348743781</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-5175243.04614378</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5175265.452143781</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5172860.178943781</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5121195.207543781</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4783542.247691703</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4764226.870891703</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4766120.671291703</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4792669.122491703</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4803123.316391704</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4755621.767391704</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4614152.179305058</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4627185.636205058</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4612653.955214201</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4642193.302714202</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4645660.302614202</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4645650.302614202</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4682072.413814202</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4668252.413814202</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4875933.413814202</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 ENJ ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-5012546.239801029</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-5012706.787701028</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5025157.04784378</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-5025147.04784378</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5032699.348743781</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-5175255.50854378</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-5175243.04614378</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-5175265.452143781</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-5176373.013043781</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5172860.178943781</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-5121195.207543781</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5126195.207543781</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5105665.207543781</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4783542.247691703</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4764226.870891703</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-4770699.626891703</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4766220.671291703</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4766120.671291703</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-4793944.671191704</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4793669.122491703</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4792669.122491703</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4803123.316391704</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4755621.767391704</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4753465.767491704</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4609086.161405058</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-4610588.161405058</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4611967.827005058</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4610652.179305058</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4614152.179305058</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-4627185.636205058</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4612653.955214201</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4642193.302714202</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4640603.302714202</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4645660.302614202</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4645650.302614202</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4684447.315714202</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4697379.036714202</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-4682072.413814202</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-4666172.413814202</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4668252.413814202</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4875933.413814202</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
